--- a/person/刘鹏辉/用户故事.xlsx
+++ b/person/刘鹏辉/用户故事.xlsx
@@ -27,7 +27,7 @@
     <t>优先级</t>
   </si>
   <si>
-    <t>初始时间(h)</t>
+    <t>初始时间估算(人日)</t>
   </si>
   <si>
     <t>进度</t>
@@ -65,7 +65,7 @@
 间进行记录，以便于与上次的学习时长进行对比。</t>
   </si>
   <si>
-    <t>作为一个喜欢叫朋友的客户，我希望能够了解周围人的信
+    <t>作为一个喜欢交朋友的客户，我希望能够了解周围人的信
 息，以便于即时的进行沟通和交流。</t>
   </si>
   <si>
@@ -78,12 +78,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,7 +93,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -107,6 +144,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -115,67 +176,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -183,25 +185,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,6 +199,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,23 +214,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,19 +245,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,31 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,127 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,6 +436,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -461,6 +463,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -472,6 +483,32 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,197 +536,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1050,14 +1043,14 @@
   <sheetPr/>
   <dimension ref="C2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="4" max="4" width="51.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="11.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="20.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="18" customHeight="1" spans="3:7">
@@ -1085,7 +1078,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -1102,7 +1095,7 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -1119,7 +1112,7 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1136,7 +1129,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1153,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -1170,7 +1163,7 @@
         <v>11</v>
       </c>
       <c r="E8">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1187,7 +1180,7 @@
         <v>12</v>
       </c>
       <c r="E9">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -1204,7 +1197,7 @@
         <v>13</v>
       </c>
       <c r="E10">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1221,7 +1214,7 @@
         <v>14</v>
       </c>
       <c r="E11">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -1238,7 +1231,7 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>5</v>

--- a/person/刘鹏辉/用户故事.xlsx
+++ b/person/刘鹏辉/用户故事.xlsx
@@ -39,38 +39,38 @@
     <t>Not Done</t>
   </si>
   <si>
+    <t>作为一个热爱学习的客户，我希望能够观看一些教学课程视频，以便于课下学习不明白的知识要点。</t>
+  </si>
+  <si>
+    <t>作为一个不断进行积累的客户，我希望能够使用手机相机
+拍下错题，以便于能够进行错题的积累。</t>
+  </si>
+  <si>
+    <t>作为一个安全意识较强的客户，我希望注册时需要验证码
+进行验证，以便于保护个人信息。</t>
+  </si>
+  <si>
     <t>作为一个对大学充满好奇的客户，我希望能够有一个对大
 学历史的简单介绍，以便于能够快速的了解大学发展史。</t>
   </si>
   <si>
+    <t>作为一个善于分析的客户，我希望能够对本次学习的时
+间进行记录，以便于与上次的学习时长进行对比。</t>
+  </si>
+  <si>
+    <t>作为一个喜欢交朋友的客户，我希望能够了解周围人的信
+息，以便于即时的进行沟通和交流。</t>
+  </si>
+  <si>
+    <t>作为一个喜欢收藏视频的客户，我希望能够收藏一些教学
+课程视频，以便于下次快速的寻找，节省时间。</t>
+  </si>
+  <si>
     <t>作为一个时刻关心高考的客户，我希望能够展示当前时间距离高考的倒计时，以便于更好的制定复习计划。</t>
-  </si>
-  <si>
-    <t>作为一个热爱学习的客户，我希望能够观看一些教学课程视频，以便于课下学习不明白的知识要点。</t>
   </si>
   <si>
     <t>作为一个热衷于练习的客户，我希望能够拥有辅导教材的
 推荐，以便于购买教辅资料进行练习。</t>
-  </si>
-  <si>
-    <t>作为一个喜欢收藏视频的客户，我希望能够收藏一些教学
-课程视频，以便于下次快速的寻找，节省时间。</t>
-  </si>
-  <si>
-    <t>作为一个不断进行积累的客户，我希望能够使用手机相机
-拍下错题，以便于能够进行错题的积累。</t>
-  </si>
-  <si>
-    <t>作为一个善于分析的客户，我希望能够对本次学习的时
-间进行记录，以便于与上次的学习时长进行对比。</t>
-  </si>
-  <si>
-    <t>作为一个喜欢交朋友的客户，我希望能够了解周围人的信
-息，以便于即时的进行沟通和交流。</t>
-  </si>
-  <si>
-    <t>作为一个安全意识较强的客户，我希望注册时需要验证码
-进行验证，以便于保护个人信息。</t>
   </si>
 </sst>
 </file>
@@ -78,9 +78,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -115,6 +115,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -130,9 +144,79 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,90 +235,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -245,6 +245,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -257,7 +305,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,163 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,26 +463,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,17 +513,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,8 +531,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,10 +544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,141 +556,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1043,8 +1046,8 @@
   <sheetPr/>
   <dimension ref="C2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1071,176 +1074,179 @@
       </c>
     </row>
     <row r="3" ht="33" customHeight="1" spans="3:7">
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>9</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="3:7">
-      <c r="C4">
+      <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="1">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="3:7">
-      <c r="C5">
+      <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="1">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="3:7">
-      <c r="C6">
+      <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>9</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="3:7">
-      <c r="C7">
+      <c r="C7" s="1">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E7" s="1">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="3:7">
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="3:7">
-      <c r="C9">
+      <c r="C9" s="1">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9">
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="3:7">
-      <c r="C10">
+      <c r="C10" s="1">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="3:7">
-      <c r="C11">
+      <c r="C11" s="1">
         <v>9</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" ht="28.8" spans="3:7">
-      <c r="C12">
+      <c r="C12" s="1">
         <v>10</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E12">
-        <v>9</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E12" s="1">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="C3:G12">
+    <sortCondition ref="E3" descending="1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/person/刘鹏辉/用户故事.xlsx
+++ b/person/刘鹏辉/用户故事.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10308"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>编号</t>
   </si>
   <si>
+    <t>标题</t>
+  </si>
+  <si>
     <t xml:space="preserve">         用户故事</t>
   </si>
   <si>
@@ -33,40 +36,70 @@
     <t>进度</t>
   </si>
   <si>
+    <t>励志故事展示</t>
+  </si>
+  <si>
     <t>作为一个充满理想与斗志的客户，我希望能够有一个励志故事的展示，以便于在迷茫的时候给与激励。</t>
   </si>
   <si>
     <t>Not Done</t>
   </si>
   <si>
+    <t>教学视频播放</t>
+  </si>
+  <si>
     <t>作为一个热爱学习的客户，我希望能够观看一些教学课程视频，以便于课下学习不明白的知识要点。</t>
+  </si>
+  <si>
+    <t>错题拍照</t>
   </si>
   <si>
     <t>作为一个不断进行积累的客户，我希望能够使用手机相机
 拍下错题，以便于能够进行错题的积累。</t>
   </si>
   <si>
+    <t>验证码验证</t>
+  </si>
+  <si>
     <t>作为一个安全意识较强的客户，我希望注册时需要验证码
 进行验证，以便于保护个人信息。</t>
   </si>
   <si>
+    <t>大学的介绍</t>
+  </si>
+  <si>
     <t>作为一个对大学充满好奇的客户，我希望能够有一个对大
 学历史的简单介绍，以便于能够快速的了解大学发展史。</t>
   </si>
   <si>
+    <t>记录时长</t>
+  </si>
+  <si>
     <t>作为一个善于分析的客户，我希望能够对本次学习的时
 间进行记录，以便于与上次的学习时长进行对比。</t>
   </si>
   <si>
+    <t>即时通信</t>
+  </si>
+  <si>
     <t>作为一个喜欢交朋友的客户，我希望能够了解周围人的信
 息，以便于即时的进行沟通和交流。</t>
   </si>
   <si>
+    <t>视频收藏</t>
+  </si>
+  <si>
     <t>作为一个喜欢收藏视频的客户，我希望能够收藏一些教学
 课程视频，以便于下次快速的寻找，节省时间。</t>
   </si>
   <si>
+    <t>展示倒计时</t>
+  </si>
+  <si>
     <t>作为一个时刻关心高考的客户，我希望能够展示当前时间距离高考的倒计时，以便于更好的制定复习计划。</t>
+  </si>
+  <si>
+    <t>教辅推荐</t>
   </si>
   <si>
     <t>作为一个热衷于练习的客户，我希望能够拥有辅导教材的
@@ -79,8 +112,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -100,7 +133,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,128 +268,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -245,79 +278,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,103 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,11 +472,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,41 +502,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,8 +540,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,10 +577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,133 +589,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,41 +1077,48 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:G12"/>
+  <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="51.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="20.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="18" customHeight="1" spans="3:7">
+    <row r="2" ht="18" customHeight="1" spans="2:7">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="33" customHeight="1" spans="2:7">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" ht="33" customHeight="1" spans="3:7">
-      <c r="C3" s="1">
-        <v>1</v>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1">
         <v>9</v>
@@ -1087,15 +1127,18 @@
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="3:7">
-      <c r="C4" s="1">
+    <row r="4" ht="28.8" spans="2:7">
+      <c r="B4">
         <v>2</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>9</v>
@@ -1104,15 +1147,18 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="3:7">
-      <c r="C5" s="1">
+    <row r="5" ht="28.8" spans="2:7">
+      <c r="B5">
         <v>3</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1">
         <v>9</v>
@@ -1121,15 +1167,18 @@
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="3:7">
-      <c r="C6" s="1">
+    <row r="6" ht="28.8" spans="2:7">
+      <c r="B6">
         <v>4</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1">
         <v>9</v>
@@ -1138,15 +1187,18 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="3:7">
-      <c r="C7" s="1">
+    <row r="7" ht="28.8" spans="2:7">
+      <c r="B7">
         <v>5</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1">
         <v>8</v>
@@ -1155,15 +1207,18 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" spans="2:7">
+      <c r="B8">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" ht="28.8" spans="3:7">
-      <c r="C8" s="1">
-        <v>6</v>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -1172,15 +1227,18 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="9" ht="28.8" spans="3:7">
-      <c r="C9" s="1">
+    <row r="9" ht="28.8" spans="2:7">
+      <c r="B9">
         <v>7</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -1189,15 +1247,18 @@
         <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="10" ht="28.8" spans="3:7">
-      <c r="C10" s="1">
+    <row r="10" ht="28.8" spans="2:7">
+      <c r="B10">
         <v>8</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
@@ -1206,15 +1267,18 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="11" ht="28.8" spans="3:7">
-      <c r="C11" s="1">
+    <row r="11" ht="28.8" spans="2:7">
+      <c r="B11">
         <v>9</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1">
         <v>6</v>
@@ -1223,15 +1287,18 @@
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="12" ht="28.8" spans="3:7">
-      <c r="C12" s="1">
+    <row r="12" ht="28.8" spans="2:7">
+      <c r="B12">
         <v>10</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1">
         <v>6</v>
@@ -1240,7 +1307,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
